--- a/Documentation/Gantt Chart v2.xlsx
+++ b/Documentation/Gantt Chart v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="25600" windowHeight="16000" activeTab="1"/>
+    <workbookView xWindow="27620" yWindow="20" windowWidth="30800" windowHeight="18740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="80">
   <si>
     <t>Documentation</t>
   </si>
@@ -255,13 +255,19 @@
   </si>
   <si>
     <t>Usecases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test plan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic registration screen </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +326,13 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -382,7 +395,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="124">
+  <cellStyleXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -509,8 +522,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -555,12 +578,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -568,8 +585,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="124">
+  <cellStyles count="134">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -631,6 +656,11 @@
     <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -692,6 +722,11 @@
     <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1589,13 +1624,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C15" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0"/>
@@ -1612,16 +1647,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="3" spans="1:22" s="21" customFormat="1" ht="36">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="17" t="s">
         <v>59</v>
       </c>
@@ -1676,10 +1711,10 @@
       <c r="T3" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="U3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="V3" s="24" t="s">
+      <c r="V3" s="22" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1782,7 +1817,7 @@
         <v>41857</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" ref="D7:D66" si="1">E7-C7</f>
+        <f t="shared" ref="D7:D68" si="1">E7-C7</f>
         <v>28</v>
       </c>
       <c r="E7" s="11">
@@ -2617,9 +2652,9 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
       <c r="M32" s="15"/>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
@@ -2650,9 +2685,9 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
       <c r="M33" s="15"/>
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
@@ -2689,7 +2724,7 @@
       <c r="M34" s="14"/>
       <c r="N34" s="15"/>
       <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
+      <c r="P34" s="27"/>
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
@@ -2722,7 +2757,7 @@
       <c r="M35" s="14"/>
       <c r="N35" s="15"/>
       <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
+      <c r="P35" s="27"/>
       <c r="Q35" s="14"/>
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
@@ -2755,7 +2790,7 @@
       <c r="M36" s="14"/>
       <c r="N36" s="15"/>
       <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
+      <c r="P36" s="27"/>
       <c r="Q36" s="14"/>
       <c r="R36" s="14"/>
       <c r="S36" s="14"/>
@@ -2788,7 +2823,7 @@
       <c r="M37" s="14"/>
       <c r="N37" s="15"/>
       <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
+      <c r="P37" s="27"/>
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
@@ -2799,7 +2834,7 @@
     <row r="38" spans="1:22" outlineLevel="1">
       <c r="A38" s="8"/>
       <c r="B38" s="7" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C38" s="11">
         <v>41904</v>
@@ -2821,7 +2856,7 @@
       <c r="M38" s="14"/>
       <c r="N38" s="15"/>
       <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
+      <c r="P38" s="27"/>
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
@@ -2832,12 +2867,12 @@
     <row r="39" spans="1:22" outlineLevel="1">
       <c r="A39" s="8"/>
       <c r="B39" s="7" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C39" s="11">
         <v>41904</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -2854,7 +2889,7 @@
       <c r="M39" s="14"/>
       <c r="N39" s="15"/>
       <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
+      <c r="P39" s="27"/>
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
@@ -2862,15 +2897,15 @@
       <c r="U39" s="14"/>
       <c r="V39" s="14"/>
     </row>
-    <row r="40" spans="1:22">
-      <c r="A40" s="7"/>
-      <c r="B40" s="6" t="s">
-        <v>40</v>
+    <row r="40" spans="1:22" outlineLevel="1">
+      <c r="A40" s="8"/>
+      <c r="B40" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="C40" s="11">
         <v>41904</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="10">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -2887,7 +2922,7 @@
       <c r="M40" s="14"/>
       <c r="N40" s="15"/>
       <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
+      <c r="P40" s="27"/>
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
       <c r="S40" s="14"/>
@@ -2895,10 +2930,10 @@
       <c r="U40" s="14"/>
       <c r="V40" s="14"/>
     </row>
-    <row r="41" spans="1:22" outlineLevel="1">
+    <row r="41" spans="1:22">
       <c r="A41" s="7"/>
-      <c r="B41" s="7" t="s">
-        <v>41</v>
+      <c r="B41" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C41" s="11">
         <v>41904</v>
@@ -2920,7 +2955,7 @@
       <c r="M41" s="14"/>
       <c r="N41" s="15"/>
       <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
+      <c r="P41" s="27"/>
       <c r="Q41" s="14"/>
       <c r="R41" s="14"/>
       <c r="S41" s="14"/>
@@ -2929,9 +2964,9 @@
       <c r="V41" s="14"/>
     </row>
     <row r="42" spans="1:22" outlineLevel="1">
-      <c r="A42" s="8"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="11">
         <v>41904</v>
@@ -2953,7 +2988,7 @@
       <c r="M42" s="14"/>
       <c r="N42" s="15"/>
       <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
+      <c r="P42" s="27"/>
       <c r="Q42" s="14"/>
       <c r="R42" s="14"/>
       <c r="S42" s="14"/>
@@ -2964,7 +2999,7 @@
     <row r="43" spans="1:22" outlineLevel="1">
       <c r="A43" s="8"/>
       <c r="B43" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="11">
         <v>41904</v>
@@ -2986,7 +3021,7 @@
       <c r="M43" s="14"/>
       <c r="N43" s="15"/>
       <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
+      <c r="P43" s="27"/>
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
       <c r="S43" s="14"/>
@@ -2997,7 +3032,7 @@
     <row r="44" spans="1:22" outlineLevel="1">
       <c r="A44" s="8"/>
       <c r="B44" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="11">
         <v>41904</v>
@@ -3019,7 +3054,7 @@
       <c r="M44" s="14"/>
       <c r="N44" s="15"/>
       <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
+      <c r="P44" s="27"/>
       <c r="Q44" s="14"/>
       <c r="R44" s="14"/>
       <c r="S44" s="14"/>
@@ -3027,10 +3062,10 @@
       <c r="U44" s="14"/>
       <c r="V44" s="14"/>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" outlineLevel="1">
       <c r="A45" s="8"/>
-      <c r="B45" s="6" t="s">
-        <v>45</v>
+      <c r="B45" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="C45" s="11">
         <v>41904</v>
@@ -3052,7 +3087,7 @@
       <c r="M45" s="14"/>
       <c r="N45" s="15"/>
       <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
+      <c r="P45" s="27"/>
       <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
       <c r="S45" s="14"/>
@@ -3063,7 +3098,7 @@
     <row r="46" spans="1:22">
       <c r="A46" s="8"/>
       <c r="B46" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="11">
         <v>41904</v>
@@ -3085,7 +3120,7 @@
       <c r="M46" s="14"/>
       <c r="N46" s="15"/>
       <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
+      <c r="P46" s="27"/>
       <c r="Q46" s="14"/>
       <c r="R46" s="14"/>
       <c r="S46" s="14"/>
@@ -3096,7 +3131,7 @@
     <row r="47" spans="1:22">
       <c r="A47" s="8"/>
       <c r="B47" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" s="11">
         <v>41904</v>
@@ -3118,7 +3153,7 @@
       <c r="M47" s="14"/>
       <c r="N47" s="15"/>
       <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
+      <c r="P47" s="27"/>
       <c r="Q47" s="14"/>
       <c r="R47" s="14"/>
       <c r="S47" s="14"/>
@@ -3129,7 +3164,7 @@
     <row r="48" spans="1:22">
       <c r="A48" s="8"/>
       <c r="B48" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="11">
         <v>41904</v>
@@ -3151,7 +3186,7 @@
       <c r="M48" s="14"/>
       <c r="N48" s="15"/>
       <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
+      <c r="P48" s="27"/>
       <c r="Q48" s="14"/>
       <c r="R48" s="14"/>
       <c r="S48" s="14"/>
@@ -3162,7 +3197,7 @@
     <row r="49" spans="1:22">
       <c r="A49" s="8"/>
       <c r="B49" s="6" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C49" s="11">
         <v>41904</v>
@@ -3171,7 +3206,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="28">
         <v>41918</v>
       </c>
       <c r="F49" s="14"/>
@@ -3184,7 +3219,7 @@
       <c r="M49" s="14"/>
       <c r="N49" s="15"/>
       <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
+      <c r="P49" s="27"/>
       <c r="Q49" s="14"/>
       <c r="R49" s="14"/>
       <c r="S49" s="14"/>
@@ -3193,19 +3228,19 @@
       <c r="V49" s="14"/>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="8"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="C50" s="11">
+        <v>41904</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E50" s="11">
         <v>41918</v>
-      </c>
-      <c r="D50" s="5">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="E50" s="11">
-        <v>41932</v>
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
@@ -3215,12 +3250,12 @@
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
       <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
       <c r="T50" s="14"/>
       <c r="U50" s="14"/>
       <c r="V50" s="14"/>
@@ -3228,17 +3263,17 @@
     <row r="51" spans="1:22">
       <c r="A51" s="8"/>
       <c r="B51" s="6" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C51" s="11">
+        <v>41904</v>
+      </c>
+      <c r="D51" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E51" s="11">
         <v>41918</v>
-      </c>
-      <c r="D51" s="5">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="E51" s="11">
-        <v>41932</v>
       </c>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
@@ -3248,21 +3283,21 @@
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
       <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
       <c r="T51" s="14"/>
       <c r="U51" s="14"/>
       <c r="V51" s="14"/>
     </row>
-    <row r="52" spans="1:22" outlineLevel="1">
-      <c r="A52" s="8"/>
-      <c r="B52" s="7" t="s">
-        <v>37</v>
-      </c>
+    <row r="52" spans="1:22">
+      <c r="A52" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="8"/>
       <c r="C52" s="11">
         <v>41918</v>
       </c>
@@ -3283,18 +3318,18 @@
       <c r="M52" s="14"/>
       <c r="N52" s="14"/>
       <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
+      <c r="P52" s="15"/>
       <c r="Q52" s="15"/>
-      <c r="R52" s="15"/>
-      <c r="S52" s="15"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="27"/>
       <c r="T52" s="14"/>
       <c r="U52" s="14"/>
       <c r="V52" s="14"/>
     </row>
-    <row r="53" spans="1:22" outlineLevel="1">
+    <row r="53" spans="1:22">
       <c r="A53" s="8"/>
-      <c r="B53" s="7" t="s">
-        <v>38</v>
+      <c r="B53" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C53" s="11">
         <v>41918</v>
@@ -3316,10 +3351,10 @@
       <c r="M53" s="14"/>
       <c r="N53" s="14"/>
       <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
+      <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
-      <c r="R53" s="15"/>
-      <c r="S53" s="15"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="27"/>
       <c r="T53" s="14"/>
       <c r="U53" s="14"/>
       <c r="V53" s="14"/>
@@ -3327,7 +3362,7 @@
     <row r="54" spans="1:22" outlineLevel="1">
       <c r="A54" s="8"/>
       <c r="B54" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C54" s="11">
         <v>41918</v>
@@ -3349,10 +3384,10 @@
       <c r="M54" s="14"/>
       <c r="N54" s="14"/>
       <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
+      <c r="P54" s="15"/>
       <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="27"/>
       <c r="T54" s="14"/>
       <c r="U54" s="14"/>
       <c r="V54" s="14"/>
@@ -3360,12 +3395,12 @@
     <row r="55" spans="1:22" outlineLevel="1">
       <c r="A55" s="8"/>
       <c r="B55" s="7" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="C55" s="11">
         <v>41918</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -3382,18 +3417,18 @@
       <c r="M55" s="14"/>
       <c r="N55" s="14"/>
       <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
+      <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="15"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="27"/>
       <c r="T55" s="14"/>
       <c r="U55" s="14"/>
       <c r="V55" s="14"/>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" outlineLevel="1">
       <c r="A56" s="8"/>
-      <c r="B56" s="6" t="s">
-        <v>51</v>
+      <c r="B56" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C56" s="11">
         <v>41918</v>
@@ -3415,23 +3450,23 @@
       <c r="M56" s="14"/>
       <c r="N56" s="14"/>
       <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
+      <c r="P56" s="15"/>
       <c r="Q56" s="15"/>
-      <c r="R56" s="15"/>
-      <c r="S56" s="15"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="27"/>
       <c r="T56" s="14"/>
       <c r="U56" s="14"/>
       <c r="V56" s="14"/>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" outlineLevel="1">
       <c r="A57" s="8"/>
-      <c r="B57" s="6" t="s">
-        <v>52</v>
+      <c r="B57" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="C57" s="11">
         <v>41918</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="10">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -3448,10 +3483,10 @@
       <c r="M57" s="14"/>
       <c r="N57" s="14"/>
       <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
+      <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
-      <c r="R57" s="15"/>
-      <c r="S57" s="15"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="27"/>
       <c r="T57" s="14"/>
       <c r="U57" s="14"/>
       <c r="V57" s="14"/>
@@ -3459,7 +3494,7 @@
     <row r="58" spans="1:22">
       <c r="A58" s="8"/>
       <c r="B58" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C58" s="11">
         <v>41918</v>
@@ -3481,10 +3516,10 @@
       <c r="M58" s="14"/>
       <c r="N58" s="14"/>
       <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
+      <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
-      <c r="R58" s="15"/>
-      <c r="S58" s="15"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="27"/>
       <c r="T58" s="14"/>
       <c r="U58" s="14"/>
       <c r="V58" s="14"/>
@@ -3492,7 +3527,7 @@
     <row r="59" spans="1:22">
       <c r="A59" s="8"/>
       <c r="B59" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C59" s="11">
         <v>41918</v>
@@ -3514,10 +3549,10 @@
       <c r="M59" s="14"/>
       <c r="N59" s="14"/>
       <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
+      <c r="P59" s="15"/>
       <c r="Q59" s="15"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="15"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="27"/>
       <c r="T59" s="14"/>
       <c r="U59" s="14"/>
       <c r="V59" s="14"/>
@@ -3525,7 +3560,7 @@
     <row r="60" spans="1:22">
       <c r="A60" s="8"/>
       <c r="B60" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C60" s="11">
         <v>41918</v>
@@ -3547,27 +3582,28 @@
       <c r="M60" s="14"/>
       <c r="N60" s="14"/>
       <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
+      <c r="P60" s="15"/>
       <c r="Q60" s="15"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="15"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="27"/>
       <c r="T60" s="14"/>
       <c r="U60" s="14"/>
       <c r="V60" s="14"/>
     </row>
     <row r="61" spans="1:22">
-      <c r="A61" s="12" t="s">
-        <v>63</v>
+      <c r="A61" s="8"/>
+      <c r="B61" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="C61" s="11">
+        <v>41918</v>
+      </c>
+      <c r="D61" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E61" s="11">
         <v>41932</v>
-      </c>
-      <c r="D61" s="5">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="E61" s="11">
-        <v>41946</v>
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
@@ -3579,27 +3615,28 @@
       <c r="M61" s="14"/>
       <c r="N61" s="14"/>
       <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="14"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
       <c r="R61" s="14"/>
-      <c r="S61" s="14"/>
-      <c r="T61" s="15"/>
-      <c r="U61" s="15"/>
-      <c r="V61" s="15"/>
+      <c r="S61" s="27"/>
+      <c r="T61" s="14"/>
+      <c r="U61" s="14"/>
+      <c r="V61" s="14"/>
     </row>
     <row r="62" spans="1:22">
+      <c r="A62" s="8"/>
       <c r="B62" s="6" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C62" s="11">
-        <v>41946</v>
-      </c>
-      <c r="D62" s="10">
+        <v>41918</v>
+      </c>
+      <c r="D62" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="E62" s="11">
-        <v>41960</v>
+        <v>41932</v>
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
@@ -3611,27 +3648,27 @@
       <c r="M62" s="14"/>
       <c r="N62" s="14"/>
       <c r="O62" s="14"/>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="14"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
       <c r="R62" s="14"/>
-      <c r="S62" s="14"/>
-      <c r="T62" s="15"/>
-      <c r="U62" s="15"/>
-      <c r="V62" s="15"/>
-    </row>
-    <row r="63" spans="1:22" outlineLevel="1">
-      <c r="B63" s="7" t="s">
-        <v>37</v>
+      <c r="S62" s="27"/>
+      <c r="T62" s="14"/>
+      <c r="U62" s="14"/>
+      <c r="V62" s="14"/>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="C63" s="11">
+        <v>41932</v>
+      </c>
+      <c r="D63" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E63" s="11">
         <v>41946</v>
-      </c>
-      <c r="D63" s="10">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="E63" s="11">
-        <v>41960</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
@@ -3645,15 +3682,15 @@
       <c r="O63" s="14"/>
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
-      <c r="R63" s="14"/>
-      <c r="S63" s="14"/>
-      <c r="T63" s="15"/>
-      <c r="U63" s="15"/>
-      <c r="V63" s="15"/>
-    </row>
-    <row r="64" spans="1:22" outlineLevel="1">
-      <c r="B64" s="7" t="s">
-        <v>38</v>
+      <c r="R63" s="15"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
+      <c r="V63" s="27"/>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="B64" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C64" s="11">
         <v>41946</v>
@@ -3677,15 +3714,15 @@
       <c r="O64" s="14"/>
       <c r="P64" s="14"/>
       <c r="Q64" s="14"/>
-      <c r="R64" s="14"/>
-      <c r="S64" s="14"/>
-      <c r="T64" s="15"/>
-      <c r="U64" s="15"/>
-      <c r="V64" s="15"/>
+      <c r="R64" s="15"/>
+      <c r="S64" s="15"/>
+      <c r="T64" s="14"/>
+      <c r="U64" s="14"/>
+      <c r="V64" s="27"/>
     </row>
     <row r="65" spans="2:22" outlineLevel="1">
       <c r="B65" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C65" s="11">
         <v>41946</v>
@@ -3709,15 +3746,15 @@
       <c r="O65" s="14"/>
       <c r="P65" s="14"/>
       <c r="Q65" s="14"/>
-      <c r="R65" s="14"/>
-      <c r="S65" s="14"/>
-      <c r="T65" s="15"/>
-      <c r="U65" s="15"/>
-      <c r="V65" s="15"/>
-    </row>
-    <row r="66" spans="2:22">
-      <c r="B66" s="26" t="s">
-        <v>77</v>
+      <c r="R65" s="15"/>
+      <c r="S65" s="15"/>
+      <c r="T65" s="14"/>
+      <c r="U65" s="14"/>
+      <c r="V65" s="27"/>
+    </row>
+    <row r="66" spans="2:22" outlineLevel="1">
+      <c r="B66" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="C66" s="11">
         <v>41946</v>
@@ -3741,11 +3778,75 @@
       <c r="O66" s="14"/>
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
-      <c r="R66" s="14"/>
-      <c r="S66" s="14"/>
-      <c r="T66" s="15"/>
-      <c r="U66" s="15"/>
-      <c r="V66" s="15"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="14"/>
+      <c r="U66" s="14"/>
+      <c r="V66" s="27"/>
+    </row>
+    <row r="67" spans="2:22" outlineLevel="1">
+      <c r="B67" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="11">
+        <v>41946</v>
+      </c>
+      <c r="D67" s="10">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E67" s="11">
+        <v>41960</v>
+      </c>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="15"/>
+      <c r="S67" s="15"/>
+      <c r="T67" s="27"/>
+      <c r="U67" s="27"/>
+      <c r="V67" s="27"/>
+    </row>
+    <row r="68" spans="2:22">
+      <c r="B68" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="11">
+        <v>41946</v>
+      </c>
+      <c r="D68" s="10">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E68" s="11">
+        <v>41960</v>
+      </c>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="15"/>
+      <c r="S68" s="15"/>
+      <c r="T68" s="27"/>
+      <c r="U68" s="27"/>
+      <c r="V68" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documentation/Gantt Chart v2.xlsx
+++ b/Documentation/Gantt Chart v2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="81">
   <si>
     <t>Documentation</t>
   </si>
@@ -215,9 +215,6 @@
     <t>Iteration 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Just Health Gannt Chart </t>
-  </si>
-  <si>
     <t>06/10/2014 (Week 2)</t>
   </si>
   <si>
@@ -261,6 +258,12 @@
   </si>
   <si>
     <t xml:space="preserve">Basic registration screen </t>
+  </si>
+  <si>
+    <t>Password Research</t>
+  </si>
+  <si>
+    <t>Just Health Gannt Chart V2</t>
   </si>
 </sst>
 </file>
@@ -585,14 +588,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="134">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1624,13 +1627,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C15" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="M27" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0"/>
@@ -1647,16 +1650,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20">
-      <c r="A1" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="25"/>
+      <c r="A1" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="27"/>
     </row>
     <row r="3" spans="1:22" s="21" customFormat="1" ht="36">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="17" t="s">
         <v>59</v>
       </c>
@@ -1691,31 +1694,31 @@
         <v>41904</v>
       </c>
       <c r="N3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" s="17" t="s">
+      <c r="Q3" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="R3" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="S3" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="T3" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="U3" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="U3" s="22" t="s">
+      <c r="V3" s="22" t="s">
         <v>72</v>
-      </c>
-      <c r="V3" s="22" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -1817,7 +1820,7 @@
         <v>41857</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" ref="D7:D68" si="1">E7-C7</f>
+        <f t="shared" ref="D7:D70" si="1">E7-C7</f>
         <v>28</v>
       </c>
       <c r="E7" s="11">
@@ -2108,7 +2111,7 @@
     <row r="16" spans="1:22" outlineLevel="1">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="11">
         <v>41854</v>
@@ -2636,7 +2639,7 @@
     <row r="32" spans="1:22" outlineLevel="1">
       <c r="A32" s="9"/>
       <c r="B32" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="11">
         <v>41904</v>
@@ -2669,7 +2672,7 @@
     <row r="33" spans="1:22" outlineLevel="1">
       <c r="A33" s="9"/>
       <c r="B33" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="11">
         <v>41904</v>
@@ -2724,7 +2727,7 @@
       <c r="M34" s="14"/>
       <c r="N34" s="15"/>
       <c r="O34" s="15"/>
-      <c r="P34" s="27"/>
+      <c r="P34" s="25"/>
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
@@ -2757,7 +2760,7 @@
       <c r="M35" s="14"/>
       <c r="N35" s="15"/>
       <c r="O35" s="15"/>
-      <c r="P35" s="27"/>
+      <c r="P35" s="25"/>
       <c r="Q35" s="14"/>
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
@@ -2790,7 +2793,7 @@
       <c r="M36" s="14"/>
       <c r="N36" s="15"/>
       <c r="O36" s="15"/>
-      <c r="P36" s="27"/>
+      <c r="P36" s="25"/>
       <c r="Q36" s="14"/>
       <c r="R36" s="14"/>
       <c r="S36" s="14"/>
@@ -2823,7 +2826,7 @@
       <c r="M37" s="14"/>
       <c r="N37" s="15"/>
       <c r="O37" s="15"/>
-      <c r="P37" s="27"/>
+      <c r="P37" s="25"/>
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
@@ -2834,7 +2837,7 @@
     <row r="38" spans="1:22" outlineLevel="1">
       <c r="A38" s="8"/>
       <c r="B38" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="11">
         <v>41904</v>
@@ -2856,7 +2859,7 @@
       <c r="M38" s="14"/>
       <c r="N38" s="15"/>
       <c r="O38" s="15"/>
-      <c r="P38" s="27"/>
+      <c r="P38" s="25"/>
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
@@ -2889,7 +2892,7 @@
       <c r="M39" s="14"/>
       <c r="N39" s="15"/>
       <c r="O39" s="15"/>
-      <c r="P39" s="27"/>
+      <c r="P39" s="25"/>
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
@@ -2900,7 +2903,7 @@
     <row r="40" spans="1:22" outlineLevel="1">
       <c r="A40" s="8"/>
       <c r="B40" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="11">
         <v>41904</v>
@@ -2922,7 +2925,7 @@
       <c r="M40" s="14"/>
       <c r="N40" s="15"/>
       <c r="O40" s="15"/>
-      <c r="P40" s="27"/>
+      <c r="P40" s="25"/>
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
       <c r="S40" s="14"/>
@@ -2930,21 +2933,13 @@
       <c r="U40" s="14"/>
       <c r="V40" s="14"/>
     </row>
-    <row r="41" spans="1:22">
-      <c r="A41" s="7"/>
+    <row r="41" spans="1:22" outlineLevel="1">
+      <c r="A41" s="8"/>
       <c r="B41" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="11">
-        <v>41904</v>
-      </c>
-      <c r="D41" s="5">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="E41" s="11">
-        <v>41918</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
@@ -2955,7 +2950,7 @@
       <c r="M41" s="14"/>
       <c r="N41" s="15"/>
       <c r="O41" s="15"/>
-      <c r="P41" s="27"/>
+      <c r="P41" s="25"/>
       <c r="Q41" s="14"/>
       <c r="R41" s="14"/>
       <c r="S41" s="14"/>
@@ -2963,10 +2958,10 @@
       <c r="U41" s="14"/>
       <c r="V41" s="14"/>
     </row>
-    <row r="42" spans="1:22" outlineLevel="1">
+    <row r="42" spans="1:22">
       <c r="A42" s="7"/>
-      <c r="B42" s="7" t="s">
-        <v>41</v>
+      <c r="B42" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C42" s="11">
         <v>41904</v>
@@ -2988,7 +2983,7 @@
       <c r="M42" s="14"/>
       <c r="N42" s="15"/>
       <c r="O42" s="15"/>
-      <c r="P42" s="27"/>
+      <c r="P42" s="25"/>
       <c r="Q42" s="14"/>
       <c r="R42" s="14"/>
       <c r="S42" s="14"/>
@@ -2997,9 +2992,9 @@
       <c r="V42" s="14"/>
     </row>
     <row r="43" spans="1:22" outlineLevel="1">
-      <c r="A43" s="8"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="11">
         <v>41904</v>
@@ -3021,7 +3016,7 @@
       <c r="M43" s="14"/>
       <c r="N43" s="15"/>
       <c r="O43" s="15"/>
-      <c r="P43" s="27"/>
+      <c r="P43" s="25"/>
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
       <c r="S43" s="14"/>
@@ -3032,7 +3027,7 @@
     <row r="44" spans="1:22" outlineLevel="1">
       <c r="A44" s="8"/>
       <c r="B44" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="11">
         <v>41904</v>
@@ -3054,7 +3049,7 @@
       <c r="M44" s="14"/>
       <c r="N44" s="15"/>
       <c r="O44" s="15"/>
-      <c r="P44" s="27"/>
+      <c r="P44" s="25"/>
       <c r="Q44" s="14"/>
       <c r="R44" s="14"/>
       <c r="S44" s="14"/>
@@ -3065,7 +3060,7 @@
     <row r="45" spans="1:22" outlineLevel="1">
       <c r="A45" s="8"/>
       <c r="B45" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="11">
         <v>41904</v>
@@ -3087,7 +3082,7 @@
       <c r="M45" s="14"/>
       <c r="N45" s="15"/>
       <c r="O45" s="15"/>
-      <c r="P45" s="27"/>
+      <c r="P45" s="25"/>
       <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
       <c r="S45" s="14"/>
@@ -3095,10 +3090,10 @@
       <c r="U45" s="14"/>
       <c r="V45" s="14"/>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" outlineLevel="1">
       <c r="A46" s="8"/>
-      <c r="B46" s="6" t="s">
-        <v>45</v>
+      <c r="B46" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="C46" s="11">
         <v>41904</v>
@@ -3120,7 +3115,7 @@
       <c r="M46" s="14"/>
       <c r="N46" s="15"/>
       <c r="O46" s="15"/>
-      <c r="P46" s="27"/>
+      <c r="P46" s="25"/>
       <c r="Q46" s="14"/>
       <c r="R46" s="14"/>
       <c r="S46" s="14"/>
@@ -3131,7 +3126,7 @@
     <row r="47" spans="1:22">
       <c r="A47" s="8"/>
       <c r="B47" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="11">
         <v>41904</v>
@@ -3153,7 +3148,7 @@
       <c r="M47" s="14"/>
       <c r="N47" s="15"/>
       <c r="O47" s="15"/>
-      <c r="P47" s="27"/>
+      <c r="P47" s="25"/>
       <c r="Q47" s="14"/>
       <c r="R47" s="14"/>
       <c r="S47" s="14"/>
@@ -3164,7 +3159,7 @@
     <row r="48" spans="1:22">
       <c r="A48" s="8"/>
       <c r="B48" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="11">
         <v>41904</v>
@@ -3186,7 +3181,7 @@
       <c r="M48" s="14"/>
       <c r="N48" s="15"/>
       <c r="O48" s="15"/>
-      <c r="P48" s="27"/>
+      <c r="P48" s="25"/>
       <c r="Q48" s="14"/>
       <c r="R48" s="14"/>
       <c r="S48" s="14"/>
@@ -3197,7 +3192,7 @@
     <row r="49" spans="1:22">
       <c r="A49" s="8"/>
       <c r="B49" s="6" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="C49" s="11">
         <v>41904</v>
@@ -3206,7 +3201,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="E49" s="28">
+      <c r="E49" s="11">
         <v>41918</v>
       </c>
       <c r="F49" s="14"/>
@@ -3219,7 +3214,7 @@
       <c r="M49" s="14"/>
       <c r="N49" s="15"/>
       <c r="O49" s="15"/>
-      <c r="P49" s="27"/>
+      <c r="P49" s="25"/>
       <c r="Q49" s="14"/>
       <c r="R49" s="14"/>
       <c r="S49" s="14"/>
@@ -3230,7 +3225,7 @@
     <row r="50" spans="1:22">
       <c r="A50" s="8"/>
       <c r="B50" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C50" s="11">
         <v>41904</v>
@@ -3239,7 +3234,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="26">
         <v>41918</v>
       </c>
       <c r="F50" s="14"/>
@@ -3252,7 +3247,7 @@
       <c r="M50" s="14"/>
       <c r="N50" s="15"/>
       <c r="O50" s="15"/>
-      <c r="P50" s="27"/>
+      <c r="P50" s="25"/>
       <c r="Q50" s="14"/>
       <c r="R50" s="14"/>
       <c r="S50" s="14"/>
@@ -3263,7 +3258,7 @@
     <row r="51" spans="1:22">
       <c r="A51" s="8"/>
       <c r="B51" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" s="11">
         <v>41904</v>
@@ -3285,7 +3280,7 @@
       <c r="M51" s="14"/>
       <c r="N51" s="15"/>
       <c r="O51" s="15"/>
-      <c r="P51" s="27"/>
+      <c r="P51" s="25"/>
       <c r="Q51" s="14"/>
       <c r="R51" s="14"/>
       <c r="S51" s="14"/>
@@ -3294,19 +3289,19 @@
       <c r="V51" s="14"/>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="8"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="C52" s="11">
+        <v>41904</v>
+      </c>
+      <c r="D52" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E52" s="11">
         <v>41918</v>
-      </c>
-      <c r="D52" s="5">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="E52" s="11">
-        <v>41932</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
@@ -3316,21 +3311,21 @@
       <c r="K52" s="14"/>
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="14"/>
       <c r="R52" s="14"/>
-      <c r="S52" s="27"/>
+      <c r="S52" s="14"/>
       <c r="T52" s="14"/>
       <c r="U52" s="14"/>
       <c r="V52" s="14"/>
     </row>
     <row r="53" spans="1:22">
-      <c r="A53" s="8"/>
-      <c r="B53" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="A53" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="8"/>
       <c r="C53" s="11">
         <v>41918</v>
       </c>
@@ -3354,15 +3349,15 @@
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
       <c r="R53" s="14"/>
-      <c r="S53" s="27"/>
+      <c r="S53" s="25"/>
       <c r="T53" s="14"/>
       <c r="U53" s="14"/>
       <c r="V53" s="14"/>
     </row>
-    <row r="54" spans="1:22" outlineLevel="1">
+    <row r="54" spans="1:22">
       <c r="A54" s="8"/>
-      <c r="B54" s="7" t="s">
-        <v>37</v>
+      <c r="B54" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C54" s="11">
         <v>41918</v>
@@ -3387,7 +3382,7 @@
       <c r="P54" s="15"/>
       <c r="Q54" s="15"/>
       <c r="R54" s="14"/>
-      <c r="S54" s="27"/>
+      <c r="S54" s="25"/>
       <c r="T54" s="14"/>
       <c r="U54" s="14"/>
       <c r="V54" s="14"/>
@@ -3395,7 +3390,7 @@
     <row r="55" spans="1:22" outlineLevel="1">
       <c r="A55" s="8"/>
       <c r="B55" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C55" s="11">
         <v>41918</v>
@@ -3420,7 +3415,7 @@
       <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
       <c r="R55" s="14"/>
-      <c r="S55" s="27"/>
+      <c r="S55" s="25"/>
       <c r="T55" s="14"/>
       <c r="U55" s="14"/>
       <c r="V55" s="14"/>
@@ -3428,7 +3423,7 @@
     <row r="56" spans="1:22" outlineLevel="1">
       <c r="A56" s="8"/>
       <c r="B56" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56" s="11">
         <v>41918</v>
@@ -3453,7 +3448,7 @@
       <c r="P56" s="15"/>
       <c r="Q56" s="15"/>
       <c r="R56" s="14"/>
-      <c r="S56" s="27"/>
+      <c r="S56" s="25"/>
       <c r="T56" s="14"/>
       <c r="U56" s="14"/>
       <c r="V56" s="14"/>
@@ -3461,18 +3456,9 @@
     <row r="57" spans="1:22" outlineLevel="1">
       <c r="A57" s="8"/>
       <c r="B57" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="11">
-        <v>41918</v>
-      </c>
-      <c r="D57" s="10">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="E57" s="11">
-        <v>41932</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E57" s="11"/>
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
@@ -3486,15 +3472,15 @@
       <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
       <c r="R57" s="14"/>
-      <c r="S57" s="27"/>
+      <c r="S57" s="25"/>
       <c r="T57" s="14"/>
       <c r="U57" s="14"/>
       <c r="V57" s="14"/>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" outlineLevel="1">
       <c r="A58" s="8"/>
-      <c r="B58" s="6" t="s">
-        <v>51</v>
+      <c r="B58" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C58" s="11">
         <v>41918</v>
@@ -3519,20 +3505,20 @@
       <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
       <c r="R58" s="14"/>
-      <c r="S58" s="27"/>
+      <c r="S58" s="25"/>
       <c r="T58" s="14"/>
       <c r="U58" s="14"/>
       <c r="V58" s="14"/>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" outlineLevel="1">
       <c r="A59" s="8"/>
-      <c r="B59" s="6" t="s">
-        <v>52</v>
+      <c r="B59" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="C59" s="11">
         <v>41918</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="10">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -3552,7 +3538,7 @@
       <c r="P59" s="15"/>
       <c r="Q59" s="15"/>
       <c r="R59" s="14"/>
-      <c r="S59" s="27"/>
+      <c r="S59" s="25"/>
       <c r="T59" s="14"/>
       <c r="U59" s="14"/>
       <c r="V59" s="14"/>
@@ -3560,7 +3546,7 @@
     <row r="60" spans="1:22">
       <c r="A60" s="8"/>
       <c r="B60" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C60" s="11">
         <v>41918</v>
@@ -3585,7 +3571,7 @@
       <c r="P60" s="15"/>
       <c r="Q60" s="15"/>
       <c r="R60" s="14"/>
-      <c r="S60" s="27"/>
+      <c r="S60" s="25"/>
       <c r="T60" s="14"/>
       <c r="U60" s="14"/>
       <c r="V60" s="14"/>
@@ -3593,7 +3579,7 @@
     <row r="61" spans="1:22">
       <c r="A61" s="8"/>
       <c r="B61" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C61" s="11">
         <v>41918</v>
@@ -3618,7 +3604,7 @@
       <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
       <c r="R61" s="14"/>
-      <c r="S61" s="27"/>
+      <c r="S61" s="25"/>
       <c r="T61" s="14"/>
       <c r="U61" s="14"/>
       <c r="V61" s="14"/>
@@ -3626,7 +3612,7 @@
     <row r="62" spans="1:22">
       <c r="A62" s="8"/>
       <c r="B62" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C62" s="11">
         <v>41918</v>
@@ -3651,24 +3637,25 @@
       <c r="P62" s="15"/>
       <c r="Q62" s="15"/>
       <c r="R62" s="14"/>
-      <c r="S62" s="27"/>
+      <c r="S62" s="25"/>
       <c r="T62" s="14"/>
       <c r="U62" s="14"/>
       <c r="V62" s="14"/>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="12" t="s">
-        <v>63</v>
+      <c r="A63" s="8"/>
+      <c r="B63" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="C63" s="11">
+        <v>41918</v>
+      </c>
+      <c r="D63" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E63" s="11">
         <v>41932</v>
-      </c>
-      <c r="D63" s="5">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="E63" s="11">
-        <v>41946</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
@@ -3680,27 +3667,28 @@
       <c r="M63" s="14"/>
       <c r="N63" s="14"/>
       <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="14"/>
-      <c r="R63" s="15"/>
-      <c r="S63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="25"/>
       <c r="T63" s="14"/>
       <c r="U63" s="14"/>
-      <c r="V63" s="27"/>
+      <c r="V63" s="14"/>
     </row>
     <row r="64" spans="1:22">
+      <c r="A64" s="8"/>
       <c r="B64" s="6" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C64" s="11">
-        <v>41946</v>
-      </c>
-      <c r="D64" s="10">
+        <v>41918</v>
+      </c>
+      <c r="D64" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="E64" s="11">
-        <v>41960</v>
+        <v>41932</v>
       </c>
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
@@ -3712,27 +3700,27 @@
       <c r="M64" s="14"/>
       <c r="N64" s="14"/>
       <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="14"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="25"/>
       <c r="T64" s="14"/>
       <c r="U64" s="14"/>
-      <c r="V64" s="27"/>
-    </row>
-    <row r="65" spans="2:22" outlineLevel="1">
-      <c r="B65" s="7" t="s">
-        <v>37</v>
+      <c r="V64" s="14"/>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="C65" s="11">
+        <v>41932</v>
+      </c>
+      <c r="D65" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E65" s="11">
         <v>41946</v>
-      </c>
-      <c r="D65" s="10">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="E65" s="11">
-        <v>41960</v>
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
@@ -3750,11 +3738,11 @@
       <c r="S65" s="15"/>
       <c r="T65" s="14"/>
       <c r="U65" s="14"/>
-      <c r="V65" s="27"/>
-    </row>
-    <row r="66" spans="2:22" outlineLevel="1">
-      <c r="B66" s="7" t="s">
-        <v>38</v>
+      <c r="V65" s="25"/>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="B66" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C66" s="11">
         <v>41946</v>
@@ -3782,11 +3770,11 @@
       <c r="S66" s="15"/>
       <c r="T66" s="14"/>
       <c r="U66" s="14"/>
-      <c r="V66" s="27"/>
-    </row>
-    <row r="67" spans="2:22" outlineLevel="1">
+      <c r="V66" s="25"/>
+    </row>
+    <row r="67" spans="1:22" outlineLevel="1">
       <c r="B67" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C67" s="11">
         <v>41946</v>
@@ -3812,13 +3800,13 @@
       <c r="Q67" s="14"/>
       <c r="R67" s="15"/>
       <c r="S67" s="15"/>
-      <c r="T67" s="27"/>
-      <c r="U67" s="27"/>
-      <c r="V67" s="27"/>
-    </row>
-    <row r="68" spans="2:22">
-      <c r="B68" s="24" t="s">
-        <v>77</v>
+      <c r="T67" s="14"/>
+      <c r="U67" s="14"/>
+      <c r="V67" s="25"/>
+    </row>
+    <row r="68" spans="1:22" outlineLevel="1">
+      <c r="B68" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="C68" s="11">
         <v>41946</v>
@@ -3844,9 +3832,73 @@
       <c r="Q68" s="14"/>
       <c r="R68" s="15"/>
       <c r="S68" s="15"/>
-      <c r="T68" s="27"/>
-      <c r="U68" s="27"/>
-      <c r="V68" s="27"/>
+      <c r="T68" s="14"/>
+      <c r="U68" s="14"/>
+      <c r="V68" s="25"/>
+    </row>
+    <row r="69" spans="1:22" outlineLevel="1">
+      <c r="B69" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="11">
+        <v>41946</v>
+      </c>
+      <c r="D69" s="10">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E69" s="11">
+        <v>41960</v>
+      </c>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="25"/>
+      <c r="V69" s="25"/>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="B70" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="11">
+        <v>41946</v>
+      </c>
+      <c r="D70" s="10">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E70" s="11">
+        <v>41960</v>
+      </c>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="15"/>
+      <c r="T70" s="25"/>
+      <c r="U70" s="25"/>
+      <c r="V70" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
